--- a/record_flight_plan/flightplan/info.xlsx
+++ b/record_flight_plan/flightplan/info.xlsx
@@ -11,6 +11,9 @@
     <sheet name="airline" sheetId="2" r:id="rId2"/>
     <sheet name="restrict" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airport!$A$1:$J$532</definedName>
   </definedNames>
@@ -8153,6 +8156,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="登记"/>
+      <sheetName val="注销"/>
+      <sheetName val="受限情况"/>
+      <sheetName val="航班计划"/>
+      <sheetName val="核准"/>
+      <sheetName val="撤销"/>
+      <sheetName val="航空公司"/>
+      <sheetName val="机场"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>台州</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>幸福航</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>长治</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>上海航</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26398,7 +26445,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26412,72 +26459,174 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="str">
+        <f>[1]受限情况!G3</f>
+        <v>幸福航</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>[1]受限情况!A3</f>
+        <v>台州</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3" t="str">
+        <f>[1]受限情况!G4</f>
+        <v>上海航</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>[1]受限情况!A4</f>
+        <v>长治</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3">
+        <f>[1]受限情况!G5</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <f>[1]受限情况!A5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3">
+        <f>[1]受限情况!G6</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <f>[1]受限情况!A6</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3">
+        <f>[1]受限情况!G7</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <f>[1]受限情况!A7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3">
+        <f>[1]受限情况!G8</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <f>[1]受限情况!A8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3">
+        <f>[1]受限情况!G9</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <f>[1]受限情况!A9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3">
+        <f>[1]受限情况!G10</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <f>[1]受限情况!A10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3">
+        <f>[1]受限情况!G11</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <f>[1]受限情况!A11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3">
+        <f>[1]受限情况!G12</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <f>[1]受限情况!A12</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3">
+        <f>[1]受限情况!G13</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <f>[1]受限情况!A13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3">
+        <f>[1]受限情况!G14</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <f>[1]受限情况!A14</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3">
+        <f>[1]受限情况!G15</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <f>[1]受限情况!A15</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3">
+        <f>[1]受限情况!G16</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <f>[1]受限情况!A16</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3">
+        <f>[1]受限情况!G17</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <f>[1]受限情况!A17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3">
+        <f>[1]受限情况!G18</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <f>[1]受限情况!A18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3">
+        <f>[1]受限情况!G19</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <f>[1]受限情况!A19</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/record_flight_plan/flightplan/info.xlsx
+++ b/record_flight_plan/flightplan/info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="airport" sheetId="1" r:id="rId1"/>
@@ -8190,6 +8190,54 @@
           <cell r="G4" t="str">
             <v>上海航</v>
           </cell>
+        </row>
+        <row r="5">
+          <cell r="A5"/>
+        </row>
+        <row r="6">
+          <cell r="G6"/>
+        </row>
+        <row r="7">
+          <cell r="A7"/>
+          <cell r="G7"/>
+        </row>
+        <row r="8">
+          <cell r="A8"/>
+          <cell r="G8"/>
+        </row>
+        <row r="9">
+          <cell r="G9"/>
+        </row>
+        <row r="10">
+          <cell r="G10"/>
+        </row>
+        <row r="11">
+          <cell r="G11"/>
+        </row>
+        <row r="12">
+          <cell r="A12"/>
+          <cell r="G12"/>
+        </row>
+        <row r="13">
+          <cell r="G13"/>
+        </row>
+        <row r="14">
+          <cell r="G14"/>
+        </row>
+        <row r="15">
+          <cell r="G15"/>
+        </row>
+        <row r="16">
+          <cell r="G16"/>
+        </row>
+        <row r="17">
+          <cell r="G17"/>
+        </row>
+        <row r="18">
+          <cell r="G18"/>
+        </row>
+        <row r="19">
+          <cell r="G19"/>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
@@ -24673,8 +24721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26444,7 +26492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
